--- a/Transfer application form.xlsx
+++ b/Transfer application form.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="892" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="892" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Check List" sheetId="15" state="hidden" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="500">
   <si>
     <t>JOINING REPORT</t>
   </si>
@@ -1610,6 +1610,24 @@
   </si>
   <si>
     <t>Capgemini India - Joining Rep+B21+1:31+A1:G29</t>
+  </si>
+  <si>
+    <t>Burada Sanjeeva Rao</t>
+  </si>
+  <si>
+    <t>Burada Jyothi</t>
+  </si>
+  <si>
+    <t>Burada Anusha</t>
+  </si>
+  <si>
+    <t>Burada Akhil</t>
+  </si>
+  <si>
+    <t>Sister</t>
+  </si>
+  <si>
+    <t>Brother</t>
   </si>
 </sst>
 </file>
@@ -2791,7 +2809,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="682">
+  <cellXfs count="683">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4539,6 +4557,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="40" fillId="3" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8766,7 +8787,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AO119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -12021,7 +12042,7 @@
   </sheetPr>
   <dimension ref="A5:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -12572,7 +12593,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -13115,8 +13136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64:G64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13737,67 +13758,66 @@
       <c r="G55" s="464"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="276"/>
-      <c r="C56" s="277"/>
-      <c r="D56" s="465"/>
+      <c r="B56" s="276">
+        <v>1</v>
+      </c>
+      <c r="C56" s="277" t="s">
+        <v>494</v>
+      </c>
+      <c r="D56" s="682">
+        <v>25425</v>
+      </c>
       <c r="E56" s="465"/>
-      <c r="F56" s="466"/>
+      <c r="F56" s="466" t="s">
+        <v>477</v>
+      </c>
       <c r="G56" s="467"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="278">
-        <v>1</v>
-      </c>
-      <c r="C57" s="295" t="str">
-        <f>MASTERSHEET!R9</f>
-        <v xml:space="preserve">  </v>
+        <v>2</v>
+      </c>
+      <c r="C57" s="295" t="s">
+        <v>495</v>
       </c>
       <c r="D57" s="468">
-        <f>MASTERSHEET!F15</f>
-        <v>0</v>
+        <v>28619</v>
       </c>
       <c r="E57" s="468"/>
-      <c r="F57" s="469">
-        <f>MASTERSHEET!H15</f>
-        <v>0</v>
+      <c r="F57" s="469" t="s">
+        <v>476</v>
       </c>
       <c r="G57" s="470"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="280">
-        <v>2</v>
-      </c>
-      <c r="C58" s="279" t="str">
-        <f>MASTERSHEET!S9</f>
-        <v xml:space="preserve">  </v>
+        <v>3</v>
+      </c>
+      <c r="C58" s="279" t="s">
+        <v>496</v>
       </c>
       <c r="D58" s="428">
-        <f>MASTERSHEET!F16</f>
-        <v>0</v>
+        <v>36404</v>
       </c>
       <c r="E58" s="428"/>
-      <c r="F58" s="469">
-        <f>MASTERSHEET!H16</f>
-        <v>0</v>
+      <c r="F58" s="469" t="s">
+        <v>498</v>
       </c>
       <c r="G58" s="471"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="278">
-        <v>3</v>
-      </c>
-      <c r="C59" s="279">
-        <f>+MASTERSHEET!B17</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C59" s="279" t="s">
+        <v>497</v>
       </c>
       <c r="D59" s="428">
-        <f>+MASTERSHEET!F17</f>
-        <v>0</v>
+        <v>37196</v>
       </c>
       <c r="E59" s="428"/>
-      <c r="F59" s="469">
-        <f>+MASTERSHEET!H17</f>
-        <v>0</v>
+      <c r="F59" s="469" t="s">
+        <v>499</v>
       </c>
       <c r="G59" s="471"/>
     </row>
@@ -13891,7 +13911,6 @@
       </c>
       <c r="C68" s="439"/>
       <c r="D68" s="428">
-        <f>+MASTERSHEET!F18</f>
         <v>25425</v>
       </c>
       <c r="E68" s="428"/>
@@ -14494,7 +14513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
       <selection activeCell="G53" sqref="G53:H53"/>
     </sheetView>
   </sheetViews>
